--- a/data/trans_bre/P24_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>17,2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,44</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>123,61%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>389,54%</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>426,4%</t>
+          <t>123,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>336,97%</t>
+          <t>415,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>197,25%</t>
+          <t>589,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>328,63%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>277,11%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>197,39%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>150,11%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,58</t>
+          <t>0,39; 10,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 15,25</t>
+          <t>3,77; 16,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 15,82</t>
+          <t>6,4; 17,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 15,78</t>
+          <t>4,6; 15,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 22,44</t>
+          <t>8,55; 25,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 497,18</t>
+          <t>3,31; 21,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,71; —</t>
+          <t>3,39; 21,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,75; 2387,69</t>
+          <t>-7,59; 500,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,04; 1628,65</t>
+          <t>60,13; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,69; 706,38</t>
+          <t>104,75; 2733,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36,97; 1362,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70,36; 1012,89</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 608,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19,4; 429,68</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,76</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8,06</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>121,99%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>122,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>80,18%</t>
+          <t>83,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51,78%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>80,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,56</t>
+          <t>-0,04; 8,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 8,4</t>
+          <t>-13,96; 6,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 11,7</t>
+          <t>0,21; 11,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 9,14</t>
+          <t>-6,95; 9,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 15,99</t>
+          <t>-6,89; 17,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 547,3</t>
+          <t>-0,62; 15,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,71; 230,64</t>
+          <t>-12,53; 10,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 230,13</t>
+          <t>-10,3; 533,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 128,79</t>
+          <t>-75,89; 170,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 298,72</t>
+          <t>-2,96; 230,89</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-43,82; 124,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-37,72; 176,04</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 259,58</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; 77,29</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2,68</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,51%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49,29%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>72,9%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,91</t>
+          <t>-2,24; 9,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,72</t>
+          <t>-6,09; 6,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 5,14</t>
+          <t>-6,52; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,07</t>
+          <t>-1,15; 8,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 9,2</t>
+          <t>-0,71; 12,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 168,02</t>
+          <t>-4,63; 8,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 118,48</t>
+          <t>1,18; 16,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 50,29</t>
+          <t>-22,32; 190,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 134,41</t>
+          <t>-41,57; 92,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 88,03</t>
+          <t>-38,59; 48,98</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 131,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 147,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; 86,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 202,59</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>102,75%</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>102,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>69,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>100,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,89%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,77</t>
+          <t>2,12; 10,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 11,95</t>
+          <t>1,36; 11,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,13</t>
+          <t>1,85; 12,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,62</t>
+          <t>1,8; 12,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 11,76</t>
+          <t>3,24; 14,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,91; 259,02</t>
+          <t>-3,73; 11,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 238,82</t>
+          <t>-5,21; 9,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 153,01</t>
+          <t>24,18; 282,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 254,25</t>
+          <t>10,69; 242,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 87,9</t>
+          <t>14,63; 174,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 244,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25,23; 207,0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 89,39</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-25,73; 78,16</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>10,98</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>159,19%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,36%</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>159,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>220,25%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>75,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>240,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>99,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>98,33%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,36</t>
+          <t>2,25; 12,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 10,61</t>
+          <t>0,52; 11,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,66</t>
+          <t>1,25; 12,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 17,61</t>
+          <t>7,29; 18,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 18,32</t>
+          <t>0,72; 13,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,15; 417,72</t>
+          <t>2,84; 18,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 218,14</t>
+          <t>-0,86; 13,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 202,9</t>
+          <t>24,24; 424,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,95; 520,23</t>
+          <t>1,03; 275,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,77; 233,98</t>
+          <t>7,99; 192,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87,62; 603,24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 283,55</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19,03; 243,62</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 125,95</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>164,92%</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>164,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>148,09%</t>
+          <t>91,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>66,3%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>178,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>147,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>122,16%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,2</t>
+          <t>2,39; 11,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 9,09</t>
+          <t>-7,89; 9,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,57</t>
+          <t>0,96; 12,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 11,47</t>
+          <t>-0,37; 10,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 18,24</t>
+          <t>5,05; 25,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,77; 496,48</t>
+          <t>2,14; 18,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 195,37</t>
+          <t>7,16; 24,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 255,22</t>
+          <t>29,01; 494,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 232,91</t>
+          <t>-53,91; 179,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,97; 511,56</t>
+          <t>-0,4; 237,15</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 204,39</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 529,21</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 503,88</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>39,5; 270,77</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>9,66</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,32</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>108,94%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>108,96%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>70,43%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>89,05%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>99,76%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,35</t>
+          <t>3,52; 7,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,27</t>
+          <t>1,09; 6,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,82</t>
+          <t>3,61; 8,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,8</t>
+          <t>4,26; 8,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,78</t>
+          <t>6,29; 13,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,6; 174,62</t>
+          <t>4,03; 10,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 117,59</t>
+          <t>4,28; 11,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,12; 105,6</t>
+          <t>56,86; 186,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,1; 137,59</t>
+          <t>7,16; 103,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,66; 112,37</t>
+          <t>37,76; 116,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47,29; 143,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>50,53; 160,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>30,71; 108,75</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 93,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
